--- a/miscellaneous/ValueSet-mii-vs-prozedur-durchfuehrungsabsicht-snomedct.xlsx
+++ b/miscellaneous/ValueSet-mii-vs-prozedur-durchfuehrungsabsicht-snomedct.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2026.0.0-dev.1</t>
+    <t>2026.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/miscellaneous/ValueSet-mii-vs-prozedur-durchfuehrungsabsicht-snomedct.xlsx
+++ b/miscellaneous/ValueSet-mii-vs-prozedur-durchfuehrungsabsicht-snomedct.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-09</t>
+    <t>2025-12-12</t>
   </si>
   <si>
     <t>Publisher</t>
